--- a/tut05/output/0401CS10.xlsx
+++ b/tut05/output/0401CS10.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.836734693877551</v>
+        <v>7.84</v>
       </c>
       <c r="C6" t="n">
-        <v>8.204545454545455</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>8.906976744186046</v>
+        <v>8.91</v>
       </c>
       <c r="E6" t="n">
-        <v>8.659574468085106</v>
+        <v>8.66</v>
       </c>
       <c r="F6" t="n">
-        <v>9.404761904761905</v>
+        <v>9.4</v>
       </c>
       <c r="G6" t="n">
-        <v>8.225</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>9.097560975609756</v>
+        <v>9.1</v>
       </c>
       <c r="I6" t="n">
         <v>9</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.836734693877551</v>
+        <v>7.84</v>
       </c>
       <c r="C8" t="n">
-        <v>8.010752688172044</v>
+        <v>8.01</v>
       </c>
       <c r="D8" t="n">
-        <v>8.294117647058824</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>8.387978142076502</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>8.577777777777778</v>
+        <v>8.58</v>
       </c>
       <c r="G8" t="n">
-        <v>8.524528301886793</v>
+        <v>8.52</v>
       </c>
       <c r="H8" t="n">
-        <v>8.601307189542483</v>
+        <v>8.6</v>
       </c>
       <c r="I8" t="n">
-        <v>8.647398843930636</v>
+        <v>8.65</v>
       </c>
     </row>
   </sheetData>
